--- a/biology/Écologie/Puna_sèche_des_Andes_centrales/Puna_sèche_des_Andes_centrales.xlsx
+++ b/biology/Écologie/Puna_sèche_des_Andes_centrales/Puna_sèche_des_Andes_centrales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Puna_s%C3%A8che_des_Andes_centrales</t>
+          <t>Puna_sèche_des_Andes_centrales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La puna sèche des Andes centrales est une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des prairies et brousses d'altitude de l'écozone néotropicale.
 Elle est constituée des prairies arides de haute montagne de la partie méridionale de la cordillère andine qui s'étendent à travers l'Ouest de la Bolivie et le Nord du Chili et de l'Argentine. La végétation y est typiquement constituée d'herbes tropicales alpines et d'arbustes nains, et se rencontre entre la limite des arbres et celle des neiges éternelles.
